--- a/lib/seeds/users.xlsx
+++ b/lib/seeds/users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Documents\smuca\smuca-web\lib\seeds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B20AD9A-F3FC-4E79-B30D-6D4A93B5A114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A644AB6-7EA9-438C-AE19-A965C3DC4A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -375,7 +375,7 @@
       <calculatedColumnFormula>LOWER(SUBSTITUTE(users[[#This Row],[last_name]]," ","_"))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="job_title"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="email" dataDxfId="0">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="email" dataDxfId="1">
       <calculatedColumnFormula>_xlfn.CONCAT(users[[#This Row],[first_name_proper]],".",users[[#This Row],[last_name_proper]],"@", "smuca.fr")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="description"/>
@@ -384,8 +384,8 @@
       <calculatedColumnFormula>_xlfn.CONCAT(users[[#This Row],[first_name_proper]],users[[#This Row],[last_name_proper]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="password_confirmation"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="avatar_filename" dataDxfId="1">
-      <calculatedColumnFormula>_xlfn.CONCAT("avatar","_",users[[#This Row],[first_name_proper]],"_",users[[#This Row],[last_name_proper]],".jpeg")</calculatedColumnFormula>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="avatar_filename" dataDxfId="0">
+      <calculatedColumnFormula>_xlfn.CONCAT(users[[#This Row],[first_name_proper]],"_",users[[#This Row],[last_name_proper]],".jpeg")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="content_type"/>
   </tableColumns>
@@ -684,7 +684,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -777,8 +777,8 @@
         <v>rachedabassi</v>
       </c>
       <c r="K2" s="3" t="str">
-        <f>_xlfn.CONCAT("avatar","_",users[[#This Row],[first_name_proper]],"_",users[[#This Row],[last_name_proper]],".jpeg")</f>
-        <v>avatar_rached_abassi.jpeg</v>
+        <f>_xlfn.CONCAT(users[[#This Row],[first_name_proper]],"_",users[[#This Row],[last_name_proper]],".jpeg")</f>
+        <v>rached_abassi.jpeg</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>15</v>
@@ -821,8 +821,8 @@
         <v>lilaabdelli</v>
       </c>
       <c r="K3" s="3" t="str">
-        <f>_xlfn.CONCAT("avatar","_",users[[#This Row],[first_name_proper]],"_",users[[#This Row],[last_name_proper]],".jpeg")</f>
-        <v>avatar_lila_abdelli.jpeg</v>
+        <f>_xlfn.CONCAT(users[[#This Row],[first_name_proper]],"_",users[[#This Row],[last_name_proper]],".jpeg")</f>
+        <v>lila_abdelli.jpeg</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>15</v>
@@ -865,8 +865,8 @@
         <v>fabriceagbemebia</v>
       </c>
       <c r="K4" s="3" t="str">
-        <f>_xlfn.CONCAT("avatar","_",users[[#This Row],[first_name_proper]],"_",users[[#This Row],[last_name_proper]],".jpeg")</f>
-        <v>avatar_fabrice_agbemebia.jpeg</v>
+        <f>_xlfn.CONCAT(users[[#This Row],[first_name_proper]],"_",users[[#This Row],[last_name_proper]],".jpeg")</f>
+        <v>fabrice_agbemebia.jpeg</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>15</v>
@@ -909,8 +909,8 @@
         <v>paulandregnette</v>
       </c>
       <c r="K5" s="3" t="str">
-        <f>_xlfn.CONCAT("avatar","_",users[[#This Row],[first_name_proper]],"_",users[[#This Row],[last_name_proper]],".jpeg")</f>
-        <v>avatar_paul_andregnette.jpeg</v>
+        <f>_xlfn.CONCAT(users[[#This Row],[first_name_proper]],"_",users[[#This Row],[last_name_proper]],".jpeg")</f>
+        <v>paul_andregnette.jpeg</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>15</v>
@@ -953,8 +953,8 @@
         <v>tarabektache</v>
       </c>
       <c r="K6" s="3" t="str">
-        <f>_xlfn.CONCAT("avatar","_",users[[#This Row],[first_name_proper]],"_",users[[#This Row],[last_name_proper]],".jpeg")</f>
-        <v>avatar_tara_bektache.jpeg</v>
+        <f>_xlfn.CONCAT(users[[#This Row],[first_name_proper]],"_",users[[#This Row],[last_name_proper]],".jpeg")</f>
+        <v>tara_bektache.jpeg</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>15</v>
@@ -997,8 +997,8 @@
         <v>alexandrachmelewsky</v>
       </c>
       <c r="K7" s="3" t="str">
-        <f>_xlfn.CONCAT("avatar","_",users[[#This Row],[first_name_proper]],"_",users[[#This Row],[last_name_proper]],".jpeg")</f>
-        <v>avatar_alexandra_chmelewsky.jpeg</v>
+        <f>_xlfn.CONCAT(users[[#This Row],[first_name_proper]],"_",users[[#This Row],[last_name_proper]],".jpeg")</f>
+        <v>alexandra_chmelewsky.jpeg</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>15</v>
@@ -1041,8 +1041,8 @@
         <v>tarekdallel</v>
       </c>
       <c r="K8" s="3" t="str">
-        <f>_xlfn.CONCAT("avatar","_",users[[#This Row],[first_name_proper]],"_",users[[#This Row],[last_name_proper]],".jpeg")</f>
-        <v>avatar_tarek_dallel.jpeg</v>
+        <f>_xlfn.CONCAT(users[[#This Row],[first_name_proper]],"_",users[[#This Row],[last_name_proper]],".jpeg")</f>
+        <v>tarek_dallel.jpeg</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>15</v>
@@ -1085,8 +1085,8 @@
         <v>frédérickde_ste_mareville</v>
       </c>
       <c r="K9" s="3" t="str">
-        <f>_xlfn.CONCAT("avatar","_",users[[#This Row],[first_name_proper]],"_",users[[#This Row],[last_name_proper]],".jpeg")</f>
-        <v>avatar_frédérick_de_ste_mareville.jpeg</v>
+        <f>_xlfn.CONCAT(users[[#This Row],[first_name_proper]],"_",users[[#This Row],[last_name_proper]],".jpeg")</f>
+        <v>frédérick_de_ste_mareville.jpeg</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>15</v>
@@ -1129,8 +1129,8 @@
         <v>hubertdelarue</v>
       </c>
       <c r="K10" s="3" t="str">
-        <f>_xlfn.CONCAT("avatar","_",users[[#This Row],[first_name_proper]],"_",users[[#This Row],[last_name_proper]],".jpeg")</f>
-        <v>avatar_hubert_delarue.jpeg</v>
+        <f>_xlfn.CONCAT(users[[#This Row],[first_name_proper]],"_",users[[#This Row],[last_name_proper]],".jpeg")</f>
+        <v>hubert_delarue.jpeg</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>15</v>
@@ -1173,8 +1173,8 @@
         <v>amandinedelassus</v>
       </c>
       <c r="K11" s="3" t="str">
-        <f>_xlfn.CONCAT("avatar","_",users[[#This Row],[first_name_proper]],"_",users[[#This Row],[last_name_proper]],".jpeg")</f>
-        <v>avatar_amandine_delassus.jpeg</v>
+        <f>_xlfn.CONCAT(users[[#This Row],[first_name_proper]],"_",users[[#This Row],[last_name_proper]],".jpeg")</f>
+        <v>amandine_delassus.jpeg</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>15</v>
@@ -1217,8 +1217,8 @@
         <v>adriendenis</v>
       </c>
       <c r="K12" s="3" t="str">
-        <f>_xlfn.CONCAT("avatar","_",users[[#This Row],[first_name_proper]],"_",users[[#This Row],[last_name_proper]],".jpeg")</f>
-        <v>avatar_adrien_denis.jpeg</v>
+        <f>_xlfn.CONCAT(users[[#This Row],[first_name_proper]],"_",users[[#This Row],[last_name_proper]],".jpeg")</f>
+        <v>adrien_denis.jpeg</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>15</v>
@@ -1261,8 +1261,8 @@
         <v>dimitridesurmont</v>
       </c>
       <c r="K13" s="3" t="str">
-        <f>_xlfn.CONCAT("avatar","_",users[[#This Row],[first_name_proper]],"_",users[[#This Row],[last_name_proper]],".jpeg")</f>
-        <v>avatar_dimitri_desurmont.jpeg</v>
+        <f>_xlfn.CONCAT(users[[#This Row],[first_name_proper]],"_",users[[#This Row],[last_name_proper]],".jpeg")</f>
+        <v>dimitri_desurmont.jpeg</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>15</v>
@@ -1305,8 +1305,8 @@
         <v>géraldlorriaux</v>
       </c>
       <c r="K14" s="3" t="str">
-        <f>_xlfn.CONCAT("avatar","_",users[[#This Row],[first_name_proper]],"_",users[[#This Row],[last_name_proper]],".jpeg")</f>
-        <v>avatar_gérald_lorriaux.jpeg</v>
+        <f>_xlfn.CONCAT(users[[#This Row],[first_name_proper]],"_",users[[#This Row],[last_name_proper]],".jpeg")</f>
+        <v>gérald_lorriaux.jpeg</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>15</v>
@@ -1349,8 +1349,8 @@
         <v>hacènemoussouni</v>
       </c>
       <c r="K15" s="3" t="str">
-        <f>_xlfn.CONCAT("avatar","_",users[[#This Row],[first_name_proper]],"_",users[[#This Row],[last_name_proper]],".jpeg")</f>
-        <v>avatar_hacène_moussouni.jpeg</v>
+        <f>_xlfn.CONCAT(users[[#This Row],[first_name_proper]],"_",users[[#This Row],[last_name_proper]],".jpeg")</f>
+        <v>hacène_moussouni.jpeg</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>15</v>
@@ -1393,8 +1393,8 @@
         <v>antoinepattyn</v>
       </c>
       <c r="K16" s="3" t="str">
-        <f>_xlfn.CONCAT("avatar","_",users[[#This Row],[first_name_proper]],"_",users[[#This Row],[last_name_proper]],".jpeg")</f>
-        <v>avatar_antoine_pattyn.jpeg</v>
+        <f>_xlfn.CONCAT(users[[#This Row],[first_name_proper]],"_",users[[#This Row],[last_name_proper]],".jpeg")</f>
+        <v>antoine_pattyn.jpeg</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>15</v>
@@ -1437,8 +1437,8 @@
         <v>sarahpires</v>
       </c>
       <c r="K17" s="3" t="str">
-        <f>_xlfn.CONCAT("avatar","_",users[[#This Row],[first_name_proper]],"_",users[[#This Row],[last_name_proper]],".jpeg")</f>
-        <v>avatar_sarah_pires.jpeg</v>
+        <f>_xlfn.CONCAT(users[[#This Row],[first_name_proper]],"_",users[[#This Row],[last_name_proper]],".jpeg")</f>
+        <v>sarah_pires.jpeg</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>15</v>
@@ -1481,8 +1481,8 @@
         <v>frédéricpochet</v>
       </c>
       <c r="K18" s="3" t="str">
-        <f>_xlfn.CONCAT("avatar","_",users[[#This Row],[first_name_proper]],"_",users[[#This Row],[last_name_proper]],".jpeg")</f>
-        <v>avatar_frédéric_pochet.jpeg</v>
+        <f>_xlfn.CONCAT(users[[#This Row],[first_name_proper]],"_",users[[#This Row],[last_name_proper]],".jpeg")</f>
+        <v>frédéric_pochet.jpeg</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>15</v>
@@ -1525,8 +1525,8 @@
         <v>corinnepotin</v>
       </c>
       <c r="K19" s="3" t="str">
-        <f>_xlfn.CONCAT("avatar","_",users[[#This Row],[first_name_proper]],"_",users[[#This Row],[last_name_proper]],".jpeg")</f>
-        <v>avatar_corinne_potin.jpeg</v>
+        <f>_xlfn.CONCAT(users[[#This Row],[first_name_proper]],"_",users[[#This Row],[last_name_proper]],".jpeg")</f>
+        <v>corinne_potin.jpeg</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>15</v>
@@ -1569,8 +1569,8 @@
         <v>khalidregany</v>
       </c>
       <c r="K20" s="3" t="str">
-        <f>_xlfn.CONCAT("avatar","_",users[[#This Row],[first_name_proper]],"_",users[[#This Row],[last_name_proper]],".jpeg")</f>
-        <v>avatar_khalid_regany.jpeg</v>
+        <f>_xlfn.CONCAT(users[[#This Row],[first_name_proper]],"_",users[[#This Row],[last_name_proper]],".jpeg")</f>
+        <v>khalid_regany.jpeg</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>15</v>
@@ -1613,8 +1613,8 @@
         <v>matthiassabrachou</v>
       </c>
       <c r="K21" s="3" t="str">
-        <f>_xlfn.CONCAT("avatar","_",users[[#This Row],[first_name_proper]],"_",users[[#This Row],[last_name_proper]],".jpeg")</f>
-        <v>avatar_matthias_sabrachou.jpeg</v>
+        <f>_xlfn.CONCAT(users[[#This Row],[first_name_proper]],"_",users[[#This Row],[last_name_proper]],".jpeg")</f>
+        <v>matthias_sabrachou.jpeg</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>15</v>
@@ -1657,8 +1657,8 @@
         <v>chloéspriet</v>
       </c>
       <c r="K22" s="3" t="str">
-        <f>_xlfn.CONCAT("avatar","_",users[[#This Row],[first_name_proper]],"_",users[[#This Row],[last_name_proper]],".jpeg")</f>
-        <v>avatar_chloé_spriet.jpeg</v>
+        <f>_xlfn.CONCAT(users[[#This Row],[first_name_proper]],"_",users[[#This Row],[last_name_proper]],".jpeg")</f>
+        <v>chloé_spriet.jpeg</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>15</v>
@@ -1701,8 +1701,8 @@
         <v>laurenturso</v>
       </c>
       <c r="K23" s="3" t="str">
-        <f>_xlfn.CONCAT("avatar","_",users[[#This Row],[first_name_proper]],"_",users[[#This Row],[last_name_proper]],".jpeg")</f>
-        <v>avatar_laurent_urso.jpeg</v>
+        <f>_xlfn.CONCAT(users[[#This Row],[first_name_proper]],"_",users[[#This Row],[last_name_proper]],".jpeg")</f>
+        <v>laurent_urso.jpeg</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>15</v>

--- a/lib/seeds/users.xlsx
+++ b/lib/seeds/users.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Documents\smuca\smuca-web\lib\seeds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A644AB6-7EA9-438C-AE19-A965C3DC4A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF933C41-A75E-4A36-86FF-80D0A24AB804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="84">
   <si>
     <t>first_name</t>
   </si>
@@ -70,9 +70,6 @@
     <t>ABASSI</t>
   </si>
   <si>
-    <t>Médecin urgentiste &amp; associé</t>
-  </si>
-  <si>
     <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.</t>
   </si>
   <si>
@@ -88,9 +85,6 @@
     <t>ABDELLI</t>
   </si>
   <si>
-    <t>Médecin urgentiste &amp; associée</t>
-  </si>
-  <si>
     <t>+33 6 55 54 22 75</t>
   </si>
   <si>
@@ -145,9 +139,6 @@
     <t>DE STE MAREVILLE</t>
   </si>
   <si>
-    <t>Médecin urgentiste, cofondateur &amp; gérant</t>
-  </si>
-  <si>
     <t>+33 7 65 55 96 33</t>
   </si>
   <si>
@@ -205,9 +196,6 @@
     <t>MOUSSOUNI</t>
   </si>
   <si>
-    <t>Médecin urgentiste, associé &amp; coordinateur médical des urgences St Amé — Lambres-lez-Douai</t>
-  </si>
-  <si>
     <t>+33 6 55 59 23 96</t>
   </si>
   <si>
@@ -235,9 +223,6 @@
     <t>POCHET</t>
   </si>
   <si>
-    <t>Médecin urgentiste, fondateur, co-gérant &amp; coordinateur médical des urgences Anne d'Artois — Béthune</t>
-  </si>
-  <si>
     <t>+33 6 55 58 85 92</t>
   </si>
   <si>
@@ -268,9 +253,6 @@
     <t>SABRACHOU</t>
   </si>
   <si>
-    <t>Médecin urgentiste, cofondateur &amp; co-gérant</t>
-  </si>
-  <si>
     <t>+33 7 00 55 54 63</t>
   </si>
   <si>
@@ -290,6 +272,18 @@
   </si>
   <si>
     <t>last_name_proper</t>
+  </si>
+  <si>
+    <t>Cofondateur &amp; cogérant</t>
+  </si>
+  <si>
+    <t>Cogérant</t>
+  </si>
+  <si>
+    <t>Médecin associé</t>
+  </si>
+  <si>
+    <t>Médecin associée</t>
   </si>
 </sst>
 </file>
@@ -683,8 +677,8 @@
   </sheetPr>
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -710,10 +704,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -756,18 +750,18 @@
         <v>abassi</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="F2" s="3" t="str">
         <f>_xlfn.CONCAT(users[[#This Row],[first_name_proper]],".",users[[#This Row],[last_name_proper]],"@", "smuca.fr")</f>
         <v>rached.abassi@smuca.fr</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="I2" s="2" t="str">
         <f>_xlfn.CONCAT(users[[#This Row],[first_name_proper]],users[[#This Row],[last_name_proper]])</f>
         <v>rachedabassi</v>
@@ -781,37 +775,37 @@
         <v>rached_abassi.jpeg</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="3" t="str">
+        <f>LOWER(SUBSTITUTE(users[[#This Row],[first_name]]," ","_"))</f>
+        <v>lila</v>
+      </c>
+      <c r="D3" s="3" t="str">
+        <f>LOWER(SUBSTITUTE(users[[#This Row],[last_name]]," ","_"))</f>
+        <v>abdelli</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" s="3" t="str">
+        <f>_xlfn.CONCAT(users[[#This Row],[first_name_proper]],".",users[[#This Row],[last_name_proper]],"@", "smuca.fr")</f>
+        <v>lila.abdelli@smuca.fr</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="3" t="str">
-        <f>LOWER(SUBSTITUTE(users[[#This Row],[first_name]]," ","_"))</f>
-        <v>lila</v>
-      </c>
-      <c r="D3" s="3" t="str">
-        <f>LOWER(SUBSTITUTE(users[[#This Row],[last_name]]," ","_"))</f>
-        <v>abdelli</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="3" t="str">
-        <f>_xlfn.CONCAT(users[[#This Row],[first_name_proper]],".",users[[#This Row],[last_name_proper]],"@", "smuca.fr")</f>
-        <v>lila.abdelli@smuca.fr</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="I3" s="3" t="str">
         <f>_xlfn.CONCAT(users[[#This Row],[first_name_proper]],users[[#This Row],[last_name_proper]])</f>
         <v>lilaabdelli</v>
@@ -825,37 +819,37 @@
         <v>lila_abdelli.jpeg</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3" t="str">
+        <f>LOWER(SUBSTITUTE(users[[#This Row],[first_name]]," ","_"))</f>
+        <v>fabrice</v>
+      </c>
+      <c r="D4" s="3" t="str">
+        <f>LOWER(SUBSTITUTE(users[[#This Row],[last_name]]," ","_"))</f>
+        <v>agbemebia</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="3" t="str">
+        <f>_xlfn.CONCAT(users[[#This Row],[first_name_proper]],".",users[[#This Row],[last_name_proper]],"@", "smuca.fr")</f>
+        <v>fabrice.agbemebia@smuca.fr</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="3" t="str">
-        <f>LOWER(SUBSTITUTE(users[[#This Row],[first_name]]," ","_"))</f>
-        <v>fabrice</v>
-      </c>
-      <c r="D4" s="3" t="str">
-        <f>LOWER(SUBSTITUTE(users[[#This Row],[last_name]]," ","_"))</f>
-        <v>agbemebia</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="3" t="str">
-        <f>_xlfn.CONCAT(users[[#This Row],[first_name_proper]],".",users[[#This Row],[last_name_proper]],"@", "smuca.fr")</f>
-        <v>fabrice.agbemebia@smuca.fr</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="I4" s="3" t="str">
         <f>_xlfn.CONCAT(users[[#This Row],[first_name_proper]],users[[#This Row],[last_name_proper]])</f>
         <v>fabriceagbemebia</v>
@@ -869,37 +863,37 @@
         <v>fabrice_agbemebia.jpeg</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="3" t="str">
+        <f>LOWER(SUBSTITUTE(users[[#This Row],[first_name]]," ","_"))</f>
+        <v>paul</v>
+      </c>
+      <c r="D5" s="3" t="str">
+        <f>LOWER(SUBSTITUTE(users[[#This Row],[last_name]]," ","_"))</f>
+        <v>andregnette</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="3" t="str">
+        <f>_xlfn.CONCAT(users[[#This Row],[first_name_proper]],".",users[[#This Row],[last_name_proper]],"@", "smuca.fr")</f>
+        <v>paul.andregnette@smuca.fr</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="3" t="str">
-        <f>LOWER(SUBSTITUTE(users[[#This Row],[first_name]]," ","_"))</f>
-        <v>paul</v>
-      </c>
-      <c r="D5" s="3" t="str">
-        <f>LOWER(SUBSTITUTE(users[[#This Row],[last_name]]," ","_"))</f>
-        <v>andregnette</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="3" t="str">
-        <f>_xlfn.CONCAT(users[[#This Row],[first_name_proper]],".",users[[#This Row],[last_name_proper]],"@", "smuca.fr")</f>
-        <v>paul.andregnette@smuca.fr</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="I5" s="3" t="str">
         <f>_xlfn.CONCAT(users[[#This Row],[first_name_proper]],users[[#This Row],[last_name_proper]])</f>
         <v>paulandregnette</v>
@@ -913,37 +907,37 @@
         <v>paul_andregnette.jpeg</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="3" t="str">
+        <f>LOWER(SUBSTITUTE(users[[#This Row],[first_name]]," ","_"))</f>
+        <v>tara</v>
+      </c>
+      <c r="D6" s="3" t="str">
+        <f>LOWER(SUBSTITUTE(users[[#This Row],[last_name]]," ","_"))</f>
+        <v>bektache</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="3" t="str">
+        <f>_xlfn.CONCAT(users[[#This Row],[first_name_proper]],".",users[[#This Row],[last_name_proper]],"@", "smuca.fr")</f>
+        <v>tara.bektache@smuca.fr</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="3" t="str">
-        <f>LOWER(SUBSTITUTE(users[[#This Row],[first_name]]," ","_"))</f>
-        <v>tara</v>
-      </c>
-      <c r="D6" s="3" t="str">
-        <f>LOWER(SUBSTITUTE(users[[#This Row],[last_name]]," ","_"))</f>
-        <v>bektache</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="3" t="str">
-        <f>_xlfn.CONCAT(users[[#This Row],[first_name_proper]],".",users[[#This Row],[last_name_proper]],"@", "smuca.fr")</f>
-        <v>tara.bektache@smuca.fr</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="I6" s="3" t="str">
         <f>_xlfn.CONCAT(users[[#This Row],[first_name_proper]],users[[#This Row],[last_name_proper]])</f>
         <v>tarabektache</v>
@@ -957,37 +951,37 @@
         <v>tara_bektache.jpeg</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="3" t="str">
+        <f>LOWER(SUBSTITUTE(users[[#This Row],[first_name]]," ","_"))</f>
+        <v>alexandra</v>
+      </c>
+      <c r="D7" s="3" t="str">
+        <f>LOWER(SUBSTITUTE(users[[#This Row],[last_name]]," ","_"))</f>
+        <v>chmelewsky</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" s="3" t="str">
+        <f>_xlfn.CONCAT(users[[#This Row],[first_name_proper]],".",users[[#This Row],[last_name_proper]],"@", "smuca.fr")</f>
+        <v>alexandra.chmelewsky@smuca.fr</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="3" t="str">
-        <f>LOWER(SUBSTITUTE(users[[#This Row],[first_name]]," ","_"))</f>
-        <v>alexandra</v>
-      </c>
-      <c r="D7" s="3" t="str">
-        <f>LOWER(SUBSTITUTE(users[[#This Row],[last_name]]," ","_"))</f>
-        <v>chmelewsky</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="3" t="str">
-        <f>_xlfn.CONCAT(users[[#This Row],[first_name_proper]],".",users[[#This Row],[last_name_proper]],"@", "smuca.fr")</f>
-        <v>alexandra.chmelewsky@smuca.fr</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="I7" s="3" t="str">
         <f>_xlfn.CONCAT(users[[#This Row],[first_name_proper]],users[[#This Row],[last_name_proper]])</f>
         <v>alexandrachmelewsky</v>
@@ -1001,37 +995,37 @@
         <v>alexandra_chmelewsky.jpeg</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="3" t="str">
+        <f>LOWER(SUBSTITUTE(users[[#This Row],[first_name]]," ","_"))</f>
+        <v>tarek</v>
+      </c>
+      <c r="D8" s="3" t="str">
+        <f>LOWER(SUBSTITUTE(users[[#This Row],[last_name]]," ","_"))</f>
+        <v>dallel</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="3" t="str">
+        <f>_xlfn.CONCAT(users[[#This Row],[first_name_proper]],".",users[[#This Row],[last_name_proper]],"@", "smuca.fr")</f>
+        <v>tarek.dallel@smuca.fr</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="3" t="str">
-        <f>LOWER(SUBSTITUTE(users[[#This Row],[first_name]]," ","_"))</f>
-        <v>tarek</v>
-      </c>
-      <c r="D8" s="3" t="str">
-        <f>LOWER(SUBSTITUTE(users[[#This Row],[last_name]]," ","_"))</f>
-        <v>dallel</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="3" t="str">
-        <f>_xlfn.CONCAT(users[[#This Row],[first_name_proper]],".",users[[#This Row],[last_name_proper]],"@", "smuca.fr")</f>
-        <v>tarek.dallel@smuca.fr</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="I8" s="3" t="str">
         <f>_xlfn.CONCAT(users[[#This Row],[first_name_proper]],users[[#This Row],[last_name_proper]])</f>
         <v>tarekdallel</v>
@@ -1045,37 +1039,37 @@
         <v>tarek_dallel.jpeg</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="3" t="str">
+        <f>LOWER(SUBSTITUTE(users[[#This Row],[first_name]]," ","_"))</f>
+        <v>frédérick</v>
+      </c>
+      <c r="D9" s="3" t="str">
+        <f>LOWER(SUBSTITUTE(users[[#This Row],[last_name]]," ","_"))</f>
+        <v>de_ste_mareville</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="3" t="str">
+        <f>_xlfn.CONCAT(users[[#This Row],[first_name_proper]],".",users[[#This Row],[last_name_proper]],"@", "smuca.fr")</f>
+        <v>frédérick.de_ste_mareville@smuca.fr</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="3" t="str">
-        <f>LOWER(SUBSTITUTE(users[[#This Row],[first_name]]," ","_"))</f>
-        <v>frédérick</v>
-      </c>
-      <c r="D9" s="3" t="str">
-        <f>LOWER(SUBSTITUTE(users[[#This Row],[last_name]]," ","_"))</f>
-        <v>de_ste_mareville</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="3" t="str">
-        <f>_xlfn.CONCAT(users[[#This Row],[first_name_proper]],".",users[[#This Row],[last_name_proper]],"@", "smuca.fr")</f>
-        <v>frédérick.de_ste_mareville@smuca.fr</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="I9" s="3" t="str">
         <f>_xlfn.CONCAT(users[[#This Row],[first_name_proper]],users[[#This Row],[last_name_proper]])</f>
         <v>frédérickde_ste_mareville</v>
@@ -1089,15 +1083,15 @@
         <v>frédérick_de_ste_mareville.jpeg</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C10" s="3" t="str">
         <f>LOWER(SUBSTITUTE(users[[#This Row],[first_name]]," ","_"))</f>
@@ -1108,17 +1102,17 @@
         <v>delarue</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="F10" s="3" t="str">
         <f>_xlfn.CONCAT(users[[#This Row],[first_name_proper]],".",users[[#This Row],[last_name_proper]],"@", "smuca.fr")</f>
         <v>hubert.delarue@smuca.fr</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I10" s="3" t="str">
         <f>_xlfn.CONCAT(users[[#This Row],[first_name_proper]],users[[#This Row],[last_name_proper]])</f>
@@ -1133,37 +1127,37 @@
         <v>hubert_delarue.jpeg</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="3" t="str">
+        <f>LOWER(SUBSTITUTE(users[[#This Row],[first_name]]," ","_"))</f>
+        <v>amandine</v>
+      </c>
+      <c r="D11" s="3" t="str">
+        <f>LOWER(SUBSTITUTE(users[[#This Row],[last_name]]," ","_"))</f>
+        <v>delassus</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="3" t="str">
+        <f>_xlfn.CONCAT(users[[#This Row],[first_name_proper]],".",users[[#This Row],[last_name_proper]],"@", "smuca.fr")</f>
+        <v>amandine.delassus@smuca.fr</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="3" t="str">
-        <f>LOWER(SUBSTITUTE(users[[#This Row],[first_name]]," ","_"))</f>
-        <v>amandine</v>
-      </c>
-      <c r="D11" s="3" t="str">
-        <f>LOWER(SUBSTITUTE(users[[#This Row],[last_name]]," ","_"))</f>
-        <v>delassus</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="3" t="str">
-        <f>_xlfn.CONCAT(users[[#This Row],[first_name_proper]],".",users[[#This Row],[last_name_proper]],"@", "smuca.fr")</f>
-        <v>amandine.delassus@smuca.fr</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="I11" s="3" t="str">
         <f>_xlfn.CONCAT(users[[#This Row],[first_name_proper]],users[[#This Row],[last_name_proper]])</f>
         <v>amandinedelassus</v>
@@ -1177,15 +1171,15 @@
         <v>amandine_delassus.jpeg</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C12" s="3" t="str">
         <f>LOWER(SUBSTITUTE(users[[#This Row],[first_name]]," ","_"))</f>
@@ -1196,17 +1190,17 @@
         <v>denis</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="F12" s="3" t="str">
         <f>_xlfn.CONCAT(users[[#This Row],[first_name_proper]],".",users[[#This Row],[last_name_proper]],"@", "smuca.fr")</f>
         <v>adrien.denis@smuca.fr</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I12" s="3" t="str">
         <f>_xlfn.CONCAT(users[[#This Row],[first_name_proper]],users[[#This Row],[last_name_proper]])</f>
@@ -1221,15 +1215,15 @@
         <v>adrien_denis.jpeg</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C13" s="3" t="str">
         <f>LOWER(SUBSTITUTE(users[[#This Row],[first_name]]," ","_"))</f>
@@ -1240,17 +1234,17 @@
         <v>desurmont</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="F13" s="3" t="str">
         <f>_xlfn.CONCAT(users[[#This Row],[first_name_proper]],".",users[[#This Row],[last_name_proper]],"@", "smuca.fr")</f>
         <v>dimitri.desurmont@smuca.fr</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I13" s="3" t="str">
         <f>_xlfn.CONCAT(users[[#This Row],[first_name_proper]],users[[#This Row],[last_name_proper]])</f>
@@ -1265,15 +1259,15 @@
         <v>dimitri_desurmont.jpeg</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C14" s="3" t="str">
         <f>LOWER(SUBSTITUTE(users[[#This Row],[first_name]]," ","_"))</f>
@@ -1284,17 +1278,17 @@
         <v>lorriaux</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="F14" s="3" t="str">
         <f>_xlfn.CONCAT(users[[#This Row],[first_name_proper]],".",users[[#This Row],[last_name_proper]],"@", "smuca.fr")</f>
         <v>gérald.lorriaux@smuca.fr</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I14" s="3" t="str">
         <f>_xlfn.CONCAT(users[[#This Row],[first_name_proper]],users[[#This Row],[last_name_proper]])</f>
@@ -1309,15 +1303,15 @@
         <v>gérald_lorriaux.jpeg</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C15" s="3" t="str">
         <f>LOWER(SUBSTITUTE(users[[#This Row],[first_name]]," ","_"))</f>
@@ -1328,17 +1322,17 @@
         <v>moussouni</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="F15" s="3" t="str">
         <f>_xlfn.CONCAT(users[[#This Row],[first_name_proper]],".",users[[#This Row],[last_name_proper]],"@", "smuca.fr")</f>
         <v>hacène.moussouni@smuca.fr</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I15" s="3" t="str">
         <f>_xlfn.CONCAT(users[[#This Row],[first_name_proper]],users[[#This Row],[last_name_proper]])</f>
@@ -1353,15 +1347,15 @@
         <v>hacène_moussouni.jpeg</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C16" s="3" t="str">
         <f>LOWER(SUBSTITUTE(users[[#This Row],[first_name]]," ","_"))</f>
@@ -1372,17 +1366,17 @@
         <v>pattyn</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="F16" s="3" t="str">
         <f>_xlfn.CONCAT(users[[#This Row],[first_name_proper]],".",users[[#This Row],[last_name_proper]],"@", "smuca.fr")</f>
         <v>antoine.pattyn@smuca.fr</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I16" s="3" t="str">
         <f>_xlfn.CONCAT(users[[#This Row],[first_name_proper]],users[[#This Row],[last_name_proper]])</f>
@@ -1397,15 +1391,15 @@
         <v>antoine_pattyn.jpeg</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C17" s="3" t="str">
         <f>LOWER(SUBSTITUTE(users[[#This Row],[first_name]]," ","_"))</f>
@@ -1416,17 +1410,17 @@
         <v>pires</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="F17" s="3" t="str">
         <f>_xlfn.CONCAT(users[[#This Row],[first_name_proper]],".",users[[#This Row],[last_name_proper]],"@", "smuca.fr")</f>
         <v>sarah.pires@smuca.fr</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I17" s="3" t="str">
         <f>_xlfn.CONCAT(users[[#This Row],[first_name_proper]],users[[#This Row],[last_name_proper]])</f>
@@ -1441,15 +1435,15 @@
         <v>sarah_pires.jpeg</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C18" s="3" t="str">
         <f>LOWER(SUBSTITUTE(users[[#This Row],[first_name]]," ","_"))</f>
@@ -1459,18 +1453,18 @@
         <f>LOWER(SUBSTITUTE(users[[#This Row],[last_name]]," ","_"))</f>
         <v>pochet</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>67</v>
+      <c r="E18" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="F18" s="3" t="str">
         <f>_xlfn.CONCAT(users[[#This Row],[first_name_proper]],".",users[[#This Row],[last_name_proper]],"@", "smuca.fr")</f>
         <v>frédéric.pochet@smuca.fr</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I18" s="3" t="str">
         <f>_xlfn.CONCAT(users[[#This Row],[first_name_proper]],users[[#This Row],[last_name_proper]])</f>
@@ -1485,15 +1479,15 @@
         <v>frédéric_pochet.jpeg</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C19" s="3" t="str">
         <f>LOWER(SUBSTITUTE(users[[#This Row],[first_name]]," ","_"))</f>
@@ -1504,17 +1498,17 @@
         <v>potin</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F19" s="3" t="str">
         <f>_xlfn.CONCAT(users[[#This Row],[first_name_proper]],".",users[[#This Row],[last_name_proper]],"@", "smuca.fr")</f>
         <v>corinne.potin@smuca.fr</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I19" s="3" t="str">
         <f>_xlfn.CONCAT(users[[#This Row],[first_name_proper]],users[[#This Row],[last_name_proper]])</f>
@@ -1529,15 +1523,15 @@
         <v>corinne_potin.jpeg</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C20" s="3" t="str">
         <f>LOWER(SUBSTITUTE(users[[#This Row],[first_name]]," ","_"))</f>
@@ -1548,17 +1542,17 @@
         <v>regany</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="F20" s="3" t="str">
         <f>_xlfn.CONCAT(users[[#This Row],[first_name_proper]],".",users[[#This Row],[last_name_proper]],"@", "smuca.fr")</f>
         <v>khalid.regany@smuca.fr</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I20" s="3" t="str">
         <f>_xlfn.CONCAT(users[[#This Row],[first_name_proper]],users[[#This Row],[last_name_proper]])</f>
@@ -1573,15 +1567,15 @@
         <v>khalid_regany.jpeg</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C21" s="3" t="str">
         <f>LOWER(SUBSTITUTE(users[[#This Row],[first_name]]," ","_"))</f>
@@ -1591,18 +1585,18 @@
         <f>LOWER(SUBSTITUTE(users[[#This Row],[last_name]]," ","_"))</f>
         <v>sabrachou</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>78</v>
+      <c r="E21" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="F21" s="3" t="str">
         <f>_xlfn.CONCAT(users[[#This Row],[first_name_proper]],".",users[[#This Row],[last_name_proper]],"@", "smuca.fr")</f>
         <v>matthias.sabrachou@smuca.fr</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I21" s="3" t="str">
         <f>_xlfn.CONCAT(users[[#This Row],[first_name_proper]],users[[#This Row],[last_name_proper]])</f>
@@ -1617,15 +1611,15 @@
         <v>matthias_sabrachou.jpeg</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C22" s="3" t="str">
         <f>LOWER(SUBSTITUTE(users[[#This Row],[first_name]]," ","_"))</f>
@@ -1636,17 +1630,17 @@
         <v>spriet</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="F22" s="3" t="str">
         <f>_xlfn.CONCAT(users[[#This Row],[first_name_proper]],".",users[[#This Row],[last_name_proper]],"@", "smuca.fr")</f>
         <v>chloé.spriet@smuca.fr</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I22" s="3" t="str">
         <f>_xlfn.CONCAT(users[[#This Row],[first_name_proper]],users[[#This Row],[last_name_proper]])</f>
@@ -1661,36 +1655,36 @@
         <v>chloé_spriet.jpeg</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="3" t="str">
+        <f>LOWER(SUBSTITUTE(users[[#This Row],[first_name]]," ","_"))</f>
+        <v>laurent</v>
+      </c>
+      <c r="D23" s="3" t="str">
+        <f>LOWER(SUBSTITUTE(users[[#This Row],[last_name]]," ","_"))</f>
+        <v>urso</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" s="3" t="str">
-        <f>LOWER(SUBSTITUTE(users[[#This Row],[first_name]]," ","_"))</f>
-        <v>laurent</v>
-      </c>
-      <c r="D23" s="3" t="str">
-        <f>LOWER(SUBSTITUTE(users[[#This Row],[last_name]]," ","_"))</f>
-        <v>urso</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="F23" s="3" t="str">
         <f>_xlfn.CONCAT(users[[#This Row],[first_name_proper]],".",users[[#This Row],[last_name_proper]],"@", "smuca.fr")</f>
         <v>laurent.urso@smuca.fr</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I23" s="3" t="str">
         <f>_xlfn.CONCAT(users[[#This Row],[first_name_proper]],users[[#This Row],[last_name_proper]])</f>
@@ -1705,7 +1699,7 @@
         <v>laurent_urso.jpeg</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/lib/seeds/users.xlsx
+++ b/lib/seeds/users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Documents\smuca\smuca-web\lib\seeds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF933C41-A75E-4A36-86FF-80D0A24AB804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0589F12B-15D1-4685-A766-0B9531F4533C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="88">
   <si>
     <t>first_name</t>
   </si>
@@ -284,6 +284,18 @@
   </si>
   <si>
     <t>Médecin associée</t>
+  </si>
+  <si>
+    <t>Super</t>
+  </si>
+  <si>
+    <t>ADMIN</t>
+  </si>
+  <si>
+    <t>Website administrator</t>
+  </si>
+  <si>
+    <t>+33 0 00 00 00 00</t>
   </si>
 </sst>
 </file>
@@ -319,11 +331,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -357,8 +371,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="users" displayName="users" ref="A1:L23" totalsRowShown="0">
-  <autoFilter ref="A1:L23" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="users" displayName="users" ref="A1:L24" totalsRowShown="0">
+  <autoFilter ref="A1:L24" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="first_name"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="last_name"/>
@@ -675,10 +689,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="C18" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1702,6 +1716,50 @@
         <v>14</v>
       </c>
     </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A24" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="3" t="str">
+        <f>LOWER(SUBSTITUTE(users[[#This Row],[first_name]]," ","_"))</f>
+        <v>super</v>
+      </c>
+      <c r="D24" s="4" t="str">
+        <f>LOWER(SUBSTITUTE(users[[#This Row],[last_name]]," ","_"))</f>
+        <v>admin</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F24" s="4" t="str">
+        <f>_xlfn.CONCAT(users[[#This Row],[first_name_proper]],".",users[[#This Row],[last_name_proper]],"@", "smuca.fr")</f>
+        <v>super.admin@smuca.fr</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="I24" s="3" t="str">
+        <f>_xlfn.CONCAT(users[[#This Row],[first_name_proper]],users[[#This Row],[last_name_proper]])</f>
+        <v>superadmin</v>
+      </c>
+      <c r="J24" s="3" t="str">
+        <f>users[[#This Row], [password]]</f>
+        <v>superadmin</v>
+      </c>
+      <c r="K24" s="4" t="str">
+        <f>_xlfn.CONCAT(users[[#This Row],[first_name_proper]],"_",users[[#This Row],[last_name_proper]],".jpeg")</f>
+        <v>super_admin.jpeg</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
